--- a/PROJECT SYSTEM/CRMSDB.xlsx
+++ b/PROJECT SYSTEM/CRMSDB.xlsx
@@ -1,110 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="PENDING SIGNUP"/>
-    <sheet r:id="rId2" sheetId="2" name="CREDENTIALS"/>
-    <sheet r:id="rId3" sheetId="3" name="MAIN DATA"/>
+    <sheet name="PENDING SIGNUP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CREDENTIALS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MAIN DATA" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
-  <si>
-    <t>USER ID</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>FULL NAME</t>
-  </si>
-  <si>
-    <t>PHONE NUMBER</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>DATE OF BIRTH</t>
-  </si>
-  <si>
-    <t>ZIPCODE</t>
-  </si>
-  <si>
-    <t>WOAH</t>
-  </si>
-  <si>
-    <t>ADAM</t>
-  </si>
-  <si>
-    <t>BARRY</t>
-  </si>
-  <si>
-    <t>DEGAM@gmail.com</t>
-  </si>
-  <si>
-    <t>July 4th 2003</t>
-  </si>
-  <si>
-    <t>02215</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Abdul Barry A. Adam</t>
-  </si>
-  <si>
-    <t>024654897</t>
-  </si>
-  <si>
-    <t>barryadam615@gmail.com</t>
-  </si>
-  <si>
-    <t>0703044</t>
-  </si>
-  <si>
-    <t>4301</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF333333"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -127,51 +77,143 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -459,69 +501,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="17.86214285714286" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
+    <col width="18.29071428571428" bestFit="1" customWidth="1" style="14" min="2" max="2"/>
+    <col width="18.14785714285714" bestFit="1" customWidth="1" style="14" min="3" max="3"/>
+    <col width="18.43357142857143" bestFit="1" customWidth="1" style="14" min="4" max="4"/>
+    <col width="18.71928571428571" bestFit="1" customWidth="1" style="14" min="5" max="5"/>
+    <col width="18.43357142857143" bestFit="1" customWidth="1" style="14" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="14" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>USER ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PASSWORD</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>FULL NAME</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>PHONE NUMBER</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>DATE OF BIRTH</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>ZIPCODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>02215</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="inlineStr">
+        <is>
+          <t>Abdul Barry A. Adam</t>
+        </is>
+      </c>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>024654897</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="inlineStr">
+        <is>
+          <t>barryadam615@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" s="14" t="inlineStr">
+        <is>
+          <t>0703044</t>
+        </is>
+      </c>
+      <c r="G2" s="14" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -530,68 +603,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="18.29071428571428" bestFit="1" customWidth="1" style="19" min="1" max="1"/>
+    <col width="18.29071428571428" bestFit="1" customWidth="1" style="14" min="2" max="2"/>
+    <col width="18.43357142857143" bestFit="1" customWidth="1" style="14" min="3" max="3"/>
+    <col width="18.29071428571428" bestFit="1" customWidth="1" style="14" min="4" max="4"/>
+    <col width="18.005" bestFit="1" customWidth="1" style="20" min="5" max="5"/>
+    <col width="18.57642857142857" bestFit="1" customWidth="1" style="14" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="13" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>USER ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PASSWORD</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>FULL NAME</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>PHONE NUMBER</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>DATE OF BIRTH</t>
+        </is>
+      </c>
+      <c r="G1" s="16" t="inlineStr">
+        <is>
+          <t>ZIPCODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="17" t="inlineStr">
+        <is>
+          <t>WOAH</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>ADAM</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="inlineStr">
+        <is>
+          <t>BARRY</t>
+        </is>
+      </c>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>ADAM</t>
+        </is>
+      </c>
+      <c r="E2" s="18" t="inlineStr">
+        <is>
+          <t>DEGAM@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" s="14" t="inlineStr">
+        <is>
+          <t>July 4th 2003</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>4301</v>
       </c>
     </row>
@@ -601,16 +703,614 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.43357142857143" bestFit="1" customWidth="1" style="13" min="1" max="1"/>
+    <col width="18.71928571428571" bestFit="1" customWidth="1" style="14" min="2" max="2"/>
+    <col width="18.14785714285714" bestFit="1" customWidth="1" style="14" min="3" max="3"/>
+    <col width="18.14785714285714" bestFit="1" customWidth="1" style="14" min="4" max="4"/>
+    <col width="27.005" bestFit="1" customWidth="1" style="14" min="5" max="5"/>
+    <col width="27.14785714285714" bestFit="1" customWidth="1" style="15" min="6" max="6"/>
+    <col width="46.43357142857143" bestFit="1" customWidth="1" style="14" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CASE NUMBER </t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>SUSPECT</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>VICTIM</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>TYPE OF CRIME</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>LOCATION OF OCCURRENCE</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>DATE OF OCCURRENCE</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>NARRATIVE INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>MADDONA</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="inlineStr">
+        <is>
+          <t>MICHAEL</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>ARSON</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>NEW YORK</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>July 4th 2003</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>MADONNA IS JEALOUS OF MICHAEL FAME SO SHE STAB HIM IN THE BACK OUT OF JEALOSU</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" s="14" t="inlineStr">
+        <is>
+          <t>AQUINO</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>ASSASSINATION</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>NEW ORLEANS</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>March 17 2006</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>WHILE AQUINO WAS ON HIS WAY TO GO HOME AFTER STEPPING OUT OF THE PRIVATE JET WAS SHOT BY A SNIPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="inlineStr">
+        <is>
+          <t>JEFFREY</t>
+        </is>
+      </c>
+      <c r="C4" s="14" t="inlineStr">
+        <is>
+          <t>BRIAN</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>CANIBALLISM</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>CANADA</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>September 8th 2007</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>BRIAN WAS WALKING OUTSIDE OF HIS YARD AFTER A FIGHT WITH HIS MISTRESS WHEN SUDDENLY JEFFREY JUMP HIM AND RESTRAINED HIS LIMBS HE THEM PROCEEDS TO EAT HIS BOWEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>LEE BOYD</t>
+        </is>
+      </c>
+      <c r="C5" s="14" t="inlineStr">
+        <is>
+          <t>JOHN MUHAMMAD</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>ASSASSINATION</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>WASHINGTON, D.C</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>37532</v>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>Over the course of about three weeks during the fall of 2002, more than a dozen people had been mysteriously shot by an unknown sniper in the Washington, D.C. suburbs. On one single day during the spree, Oct. 3, five people were murdered by the sniper in Maryland and D.C. Eventually, the massive manhunt ballooned to include 400 FBI agents. Lee Boyd Malvo and John Muhammad were arrested and convicted. Muhammad was executed in 2009, and Malvo, only 17 years old at the time of the murders, was sentenced to life in prison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>Dan Copper</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>Airlines passengers</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Skyjacking</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>25568.66697034722</v>
+      </c>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>In a case that remains unsolved to this day, a man who said his name was Dan Cooper hijacked a flight bound for Seattle in November 1971, jumping out of the plain with a parachute on his back and the ransom money he’d demanded and gotten in his arms. While the case has captivated the public imagination, nobody has ever faced charges in the case, and Cooper’s real identity, be it Dan Cooper or D.B. Cooper, is unknown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>Ted Cruz</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>MURDER</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>NORTHERN CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>1960s-1970s</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="inlineStr">
+        <is>
+          <t>We know Ted Cruz isn’t the Zodiac killer, but to this day, authorities have yet to charge any individual with any of the murders attributed to the Zodiac. Operating in northern California at various times in the 1960s and 1970s, between seven and 30 murders are attributed to the Zodiac. The murders remain the source of public fascination, and authorities have said they could use DNA testing services to help solve the case.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>Ted Kaczynski</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>TERRORISM</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>COLORADO</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>1980</v>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>Once a well-respected math prodigy, Ted Kaczynski came to national prominence thanks to a series of bombings that killed three people and injured nearly two-dozen others</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>Jodi Arias</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>Boyfriend</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>MURDER</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>AMERICA</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Over the course of a five-month trial, much of which was broadcast on television, Jodi Arias was convicted of the brutal 2013 slaying of her boyfriend, Travis Alexander, who had been both stabbed and shot. Arias alleges she killed Alexander in self-defense, but a jury took just 15 hours to decide that Arias was guilty of premeditated murder. She was convicted of life in prison without the possibility of parole.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>Casey Anthony</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>Caylee</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>KIDNAPPING</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>The day after she reported her daughter, Caylee, missing in 2008, Casey Anthony was arrested for child neglect and the following day, authorities say cadaver dogs picked up the scent of human flesh in Anthony’s car. In a trial broadcast nearly every day on cable TV, Anthony was acquitted in the death of her young daughter, though she was found guilty of making false statements to investigators. That conviction was later overturned, and Casey Anthony served about 10 days in jail. Nobody has been convicted in the death of the 2-year-old, whose body was never found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>Charles Manson</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Sharon Tate</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>MURDER</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>A bizarrely revered figure in American culture, cult leader Charles Manson instructed his followers to commit a series of grisly murders that killed seven people over the course of two days, including pregnant actress Sharon Tate. After a seven-month trial, all cult members charged in the killings, including Manson, were convicted and sentenced to death, which was commuted to life in prison when California abolished the death penalty. While Manson continued to seek parole, it never was granted, and he died in prison in 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>JonBenet Ramsey</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>MURDER</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Boulder, Colorado</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Probably because nobody has ever been tried for the murder, the killing of JonBenet Ramsey remains a tragically fascinating crime. The body of the 6-year-old was discovered in her family’s home in Boulder, Colorado in 1996. While public suspicion has landed on pretty much every member of her family, tragedy, too, has followed. Ramsay’s mother Patsy died from cancer in 2006, and a 2006 claim of guilt in the case by an unrelated person turned out to be false, dashing the family’s hopes of closure. JonBenet’s murder remains</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>John Gotti</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>MANY</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>MURDER</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>New York mob boss John Gotti had been so successful at avoiding criminal prosecution and conviction that he earned the nickname the Teflon Don. But after investigators managed to convince a Gotti confidant and fellow mafioso, Sammy “The Bull” Gravano, to turn against Gotti, the FBI in 1991 convicted Gotti of five murders and several other charges. He was sentenced to life without the possibility of parole and died from cancer in prison in 2002.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>BARRY ADAM</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>BARBIE</t>
+        </is>
+      </c>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>ARSON</t>
+        </is>
+      </c>
+      <c r="E14" s="14" t="inlineStr">
+        <is>
+          <t>LUCENA CITY</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>JULY 4TH 2003</t>
+        </is>
+      </c>
+      <c r="G14" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADAM SMACKED BARBIE IN HER BACK FOR NOT WATCHING THE NEW MOVIE IN THE THEATER CALLED OPEEINHER
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" t="n">
+        <v>17</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HOMELANDER</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>HUMANITY</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MURDER, MASSACRE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AMERICA, N.Y</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>December 30, 2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HOMELANDER MASSACRED NEARLY 1,000 PEOPLE AT THE PLAZA BECAUSE HE WAS ANNOYED BY A BASHER
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" t="n">
+        <v>18</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BITOY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ELSA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>HARRASSMENT</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FORT SANTIAGO</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>August 23, 2020</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BITOY HARRASSED ELSA BECAUSE OF HER CUTENESS EVEN THOUGH THEY ARE COUPLE
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>19</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MOTHERNATURE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ABUSE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>EARTH</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CURRENT</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUMANITY CONTINUES TO ABUSE THE MOTHERNATURE WHILST BEING AWARE OF HER IMPORTANCE TO THEM AND THEIR FUTURE GENERATIONS, HUMAN TRULY ARE FOOLISH
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>